--- a/Data/Excel/Model/User/Player.xlsx
+++ b/Data/Excel/Model/User/Player.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Model\User\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F719104-265A-4A62-95E3-A7BA21BDF62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7CC764-7E8B-4FFA-B4DB-F2C8B5F018E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="735" yWindow="975" windowWidth="13785" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -157,10 +157,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>KingdomObjList</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Value</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -169,10 +165,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>LIST:KingdomObjPacket</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>CookieList</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -194,6 +186,22 @@
   </si>
   <si>
     <t>LIST:TicketPacket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StarCandy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccStarCandy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomItemList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST:KingdomItemPacket</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1128,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1150,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1203,7 +1211,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1321,7 +1329,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -1329,62 +1337,59 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
       </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="E21" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="E22" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
         <v>33</v>
@@ -1392,12 +1397,34 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
         <v>41</v>
       </c>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Data/Excel/Model/User/Player.xlsx
+++ b/Data/Excel/Model/User/Player.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Model\User\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7CC764-7E8B-4FFA-B4DB-F2C8B5F018E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE2D526-9EC6-4FCF-80AE-DCE328868F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="975" windowWidth="13785" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="705" yWindow="975" windowWidth="13785" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -1139,7 +1139,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1315,6 +1315,9 @@
       <c r="B17" t="s">
         <v>30</v>
       </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1324,7 +1327,7 @@
         <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1334,6 +1337,9 @@
       <c r="B19" t="s">
         <v>30</v>
       </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1343,7 +1349,7 @@
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1353,6 +1359,9 @@
       <c r="B21" t="s">
         <v>30</v>
       </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1361,6 +1370,9 @@
       <c r="B22" t="s">
         <v>30</v>
       </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1370,7 +1382,7 @@
         <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1381,7 +1393,7 @@
         <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">

--- a/Data/Excel/Model/User/Player.xlsx
+++ b/Data/Excel/Model/User/Player.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Model\User\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE2D526-9EC6-4FCF-80AE-DCE328868F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482DD0B6-9886-42BB-AC15-3F5476BDF952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="975" windowWidth="13785" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -189,19 +189,39 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>StarCandy</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>AccStarCandy</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>KingdomItemList</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIST:KingdomItemPacket</t>
+    <t>LIST:KingdomDecoPacket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST:KingdomStructurePacket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomStructureList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomDecoList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlacedKingdomItemList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST:PlacedKingdomItemPacket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastleLv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST:ItemPacket</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1136,21 +1156,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1170,7 +1190,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1184,7 +1204,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1195,7 +1215,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1203,7 +1223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1214,7 +1234,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1225,103 +1245,106 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -1330,9 +1353,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -1341,9 +1364,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -1352,9 +1375,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -1363,9 +1386,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -1374,9 +1397,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
@@ -1385,58 +1408,80 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Data/Excel/Model/User/Player.xlsx
+++ b/Data/Excel/Model/User/Player.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Model\User\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482DD0B6-9886-42BB-AC15-3F5476BDF952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1634D7A-D7C5-486B-BBF6-52EF86A8092D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
@@ -205,23 +205,23 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>CastleLv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST:ItemPacket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>PlacedKingdomItemList</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>LIST:PlacedKingdomItemPacket</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CastleLv</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemList</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIST:ItemPacket</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1158,19 +1158,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1245,9 +1245,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1441,18 +1441,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -1474,12 +1474,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E30" t="s">
         <v>33</v>

--- a/Data/Excel/Model/User/Player.xlsx
+++ b/Data/Excel/Model/User/Player.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Model\User\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1634D7A-D7C5-486B-BBF6-52EF86A8092D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D70F490-7763-41A9-A235-9E1F4EC2D655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -217,11 +217,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>PlacedKingdomItemList</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIST:PlacedKingdomItemPacket</t>
+    <t>KingdomMap</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomMapPacket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>new()</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1158,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1415,6 +1419,9 @@
       <c r="B24" t="s">
         <v>40</v>
       </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
       <c r="E24" t="s">
         <v>33</v>
       </c>
@@ -1426,6 +1433,9 @@
       <c r="B25" t="s">
         <v>41</v>
       </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
       <c r="E25" t="s">
         <v>33</v>
       </c>
@@ -1437,6 +1447,9 @@
       <c r="B26" t="s">
         <v>42</v>
       </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
       <c r="E26" t="s">
         <v>33</v>
       </c>
@@ -1448,6 +1461,9 @@
       <c r="B27" t="s">
         <v>49</v>
       </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
       <c r="E27" t="s">
         <v>33</v>
       </c>
@@ -1459,6 +1475,9 @@
       <c r="B28" t="s">
         <v>44</v>
       </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
       <c r="E28" t="s">
         <v>33</v>
       </c>
@@ -1470,6 +1489,9 @@
       <c r="B29" t="s">
         <v>43</v>
       </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
       <c r="E29" t="s">
         <v>33</v>
       </c>
@@ -1480,6 +1502,9 @@
       </c>
       <c r="B30" t="s">
         <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
       </c>
       <c r="E30" t="s">
         <v>33</v>

--- a/Data/Excel/Model/User/Player.xlsx
+++ b/Data/Excel/Model/User/Player.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Model\User\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D70F490-7763-41A9-A235-9E1F4EC2D655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D3F621-F745-4DEF-8AA5-B5EB00AF1503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -226,6 +226,22 @@
   </si>
   <si>
     <t>new()</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldStageList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST:WorldStagePacket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST:WorldPacket</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1160,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1510,6 +1526,34 @@
         <v>33</v>
       </c>
     </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
